--- a/src/test/java/com/inetbanking/testData/TestData.xlsx
+++ b/src/test/java/com/inetbanking/testData/TestData.xlsx
@@ -55,12 +55,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -75,8 +81,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,16 +381,16 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
